--- a/Peace/sampledata.xlsx
+++ b/Peace/sampledata.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\test_temp\student\Peace\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6DEF85AB-8B58-4D46-B8B0-43A55E528412}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F845566C-734D-4800-B4CD-3CAFAA516452}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Athletes" sheetId="1" r:id="rId1"/>
@@ -59846,8 +59846,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F95862B3-DD6E-4F9A-92AB-1FC93EB7C67D}">
   <dimension ref="A1:B84"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" workbookViewId="0">
-      <selection sqref="A1:B84"/>
+    <sheetView tabSelected="1" topLeftCell="A49" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -61149,7 +61149,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{24F4C44A-1306-4ACF-9089-B06A03B3C65A}">
   <dimension ref="A1:B28"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
